--- a/NRHM/Maharashtra/Nagpur/2015-16/Scripts/Preprocessing/Output/Cleaned/SAONER/Patansaongi SC.xlsx
+++ b/NRHM/Maharashtra/Nagpur/2015-16/Scripts/Preprocessing/Output/Cleaned/SAONER/Patansaongi SC.xlsx
@@ -110,16 +110,13 @@
     <t>Deaths</t>
   </si>
   <si>
-    <t>Maternal Deaths</t>
-  </si>
-  <si>
     <t>Public Institutions</t>
   </si>
   <si>
-    <t>Details</t>
+    <t>Private Institutions</t>
   </si>
   <si>
-    <t>Private Institutions</t>
+    <t>Details</t>
   </si>
   <si>
     <t xml:space="preserve">Pregnancy Outcome </t>
@@ -194,6 +191,9 @@
     <t>Adolescent/Adult deaths by cause</t>
   </si>
   <si>
+    <t>Maternal Deaths</t>
+  </si>
+  <si>
     <t>Number of Infants 0 to 11 months old who received</t>
   </si>
   <si>
@@ -257,13 +257,13 @@
     <t>Number of mothers paid JSY incentive for Home deliveries</t>
   </si>
   <si>
-    <t>JSY Incentive paid to</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deliveries conducted at Public Institutions </t>
   </si>
   <si>
     <t>Of which Number discharged under 48 hours of delivery</t>
+  </si>
+  <si>
+    <t>JSY Incentive paid to</t>
   </si>
   <si>
     <t>Number of Deliveries  at accredited Private Institutions</t>
@@ -2113,53 +2113,53 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AA4" s="1"/>
       <c r="AB4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
@@ -2170,21 +2170,21 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1"/>
@@ -2192,7 +2192,7 @@
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
       <c r="BQ4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
@@ -2200,7 +2200,7 @@
       <c r="BU4" s="1"/>
       <c r="BV4" s="1"/>
       <c r="BW4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BX4" s="1"/>
       <c r="BY4" s="1"/>
@@ -2208,7 +2208,7 @@
       <c r="CA4" s="1"/>
       <c r="CB4" s="1"/>
       <c r="CC4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="CD4" s="1"/>
       <c r="CE4" s="1"/>
@@ -2216,7 +2216,7 @@
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="CJ4" s="1"/>
       <c r="CK4" s="1"/>
@@ -2230,7 +2230,7 @@
       <c r="CS4" s="1"/>
       <c r="CT4" s="1"/>
       <c r="CU4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CV4" s="1"/>
       <c r="CW4" s="1"/>
@@ -2276,12 +2276,12 @@
       <c r="EC4" s="1"/>
       <c r="ED4" s="1"/>
       <c r="EE4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="EF4" s="1"/>
       <c r="EG4" s="1"/>
       <c r="EH4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="EI4" s="1"/>
       <c r="EJ4" s="1"/>
@@ -2321,7 +2321,7 @@
       <c r="FJ4" s="1"/>
       <c r="FK4" s="1"/>
       <c r="FL4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="FM4" s="1"/>
       <c r="FN4" s="1"/>
@@ -2335,24 +2335,24 @@
       <c r="FT4" s="1"/>
       <c r="FU4" s="1"/>
       <c r="FV4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="FW4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="FX4" s="1"/>
       <c r="FY4" s="1"/>
       <c r="FZ4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="GA4" s="1"/>
       <c r="GB4" s="1"/>
       <c r="GC4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="GD4" s="1"/>
       <c r="GE4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="GF4" s="1"/>
       <c r="GG4" s="1"/>
@@ -2362,16 +2362,16 @@
       <c r="GK4" s="1"/>
       <c r="GL4" s="1"/>
       <c r="GM4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="GN4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="GN4" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="GO4" s="1"/>
       <c r="GP4" s="1"/>
       <c r="GQ4" s="1"/>
       <c r="GR4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="GS4" s="1"/>
       <c r="GT4" s="1"/>
@@ -2379,7 +2379,7 @@
         <v>23</v>
       </c>
       <c r="GV4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="GW4" s="1"/>
       <c r="GX4" s="1"/>
@@ -2393,7 +2393,7 @@
       <c r="HF4" s="1"/>
       <c r="HG4" s="1"/>
       <c r="HH4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="HI4" s="1"/>
       <c r="HJ4" s="1"/>
@@ -2410,7 +2410,7 @@
       <c r="HU4" s="1"/>
       <c r="HV4" s="1"/>
       <c r="HW4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="HX4" s="1"/>
       <c r="HY4" s="1"/>
@@ -2456,7 +2456,7 @@
       <c r="JM4" s="1"/>
       <c r="JN4" s="1"/>
       <c r="JO4" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="JP4" s="1"/>
       <c r="JQ4" s="1"/>
@@ -2538,22 +2538,22 @@
       <c r="S5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y5" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="AA5" s="1"/>
       <c r="AB5" s="1" t="s">
         <v>84</v>
       </c>
@@ -2660,47 +2660,47 @@
         <v>114</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BL5" s="1"/>
       <c r="BM5" s="1"/>
       <c r="BN5" s="1"/>
       <c r="BO5" s="1"/>
       <c r="BP5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BR5" s="1"/>
       <c r="BS5" s="1"/>
       <c r="BT5" s="1"/>
       <c r="BU5" s="1"/>
       <c r="BV5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BX5" s="1"/>
       <c r="BY5" s="1"/>
       <c r="BZ5" s="1"/>
       <c r="CA5" s="1"/>
       <c r="CB5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="CC5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CD5" s="1"/>
       <c r="CE5" s="1"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="CI5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CJ5" s="1"/>
       <c r="CK5" s="1"/>
@@ -2708,10 +2708,10 @@
       <c r="CM5" s="1"/>
       <c r="CN5" s="1"/>
       <c r="CO5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CQ5" s="1"/>
       <c r="CR5" s="1"/>
@@ -2826,7 +2826,7 @@
         <v>142</v>
       </c>
       <c r="EG5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="EH5" s="1" t="s">
         <v>143</v>
@@ -3028,7 +3028,7 @@
       <c r="HC5" s="1"/>
       <c r="HD5" s="1"/>
       <c r="HE5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="HF5" s="1"/>
       <c r="HG5" s="1"/>
@@ -3053,7 +3053,7 @@
       <c r="HR5" s="1"/>
       <c r="HS5" s="1"/>
       <c r="HT5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="HU5" s="1"/>
       <c r="HV5" s="1"/>
@@ -3220,31 +3220,31 @@
         <v>215</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>215</v>
@@ -5012,16 +5012,16 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>2</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -5908,16 +5908,16 @@
         <v>0</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>2</v>
       </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -10388,16 +10388,16 @@
         <v>0</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>3</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>2</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -11287,13 +11287,13 @@
         <v>0</v>
       </c>
       <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
         <v>2</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -12180,16 +12180,16 @@
         <v>0</v>
       </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>2</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>6</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -13079,13 +13079,13 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -14813,7 +14813,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="111">
+  <mergeCells count="112">
     <mergeCell ref="B1:KL1"/>
     <mergeCell ref="B2:EV2"/>
     <mergeCell ref="GU2:KL2"/>
@@ -14841,11 +14841,11 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="EK4:EM4"/>
-    <mergeCell ref="N4:U4"/>
+    <mergeCell ref="N4:R4"/>
     <mergeCell ref="EN4:EV4"/>
     <mergeCell ref="FS4:FU4"/>
-    <mergeCell ref="JO4:KL4"/>
-    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="X4:AA4"/>
     <mergeCell ref="EW4:FB4"/>
     <mergeCell ref="AB4:AF4"/>
     <mergeCell ref="FC4:FK4"/>
@@ -14874,12 +14874,13 @@
     <mergeCell ref="GE4:GL4"/>
     <mergeCell ref="CU4:DA4"/>
     <mergeCell ref="HW4:JN4"/>
+    <mergeCell ref="JO4:KL4"/>
     <mergeCell ref="DB4:DR4"/>
     <mergeCell ref="DS4:DV4"/>
     <mergeCell ref="DW4:DX4"/>
     <mergeCell ref="DY4:ED4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="Y5:AA5"/>
     <mergeCell ref="BK5:BO5"/>
     <mergeCell ref="BQ5:BU5"/>
     <mergeCell ref="BW5:CA5"/>
@@ -15814,21 +15815,23 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -15843,13 +15846,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -15863,18 +15866,20 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -15889,16 +15894,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -15909,18 +15914,20 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -15935,13 +15942,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -15954,23 +15961,19 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -15985,16 +15988,16 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -16005,11 +16008,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -16052,12 +16053,14 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -16101,9 +16104,11 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -16149,7 +16154,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -16192,14 +16197,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -16245,7 +16246,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>84</v>
@@ -16487,7 +16488,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>89</v>
@@ -16539,7 +16540,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>90</v>
@@ -16781,7 +16782,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>95</v>
@@ -16929,7 +16930,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>98</v>
@@ -17171,7 +17172,7 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>102</v>
@@ -17221,7 +17222,7 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>103</v>
@@ -17565,7 +17566,7 @@
         <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>110</v>
@@ -17711,7 +17712,7 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>113</v>
@@ -17763,7 +17764,7 @@
         <v>18</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>90</v>
@@ -17959,10 +17960,10 @@
         <v>21</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>98</v>
@@ -18194,7 +18195,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>220</v>
@@ -18241,10 +18242,10 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>98</v>
@@ -18476,7 +18477,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>220</v>
@@ -18523,10 +18524,10 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>98</v>
@@ -18758,7 +18759,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>220</v>
@@ -18805,10 +18806,10 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>98</v>
@@ -19040,7 +19041,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>89</v>
@@ -19087,10 +19088,10 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>221</v>
@@ -19368,7 +19369,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>89</v>
@@ -19416,7 +19417,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>224</v>
@@ -19647,7 +19648,7 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>115</v>
@@ -21381,7 +21382,7 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>141</v>
@@ -21480,7 +21481,7 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>215</v>
@@ -21527,7 +21528,7 @@
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>143</v>
@@ -22989,7 +22990,7 @@
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>90</v>
@@ -23467,7 +23468,7 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>173</v>
@@ -23517,7 +23518,7 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>174</v>
@@ -23663,7 +23664,7 @@
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>177</v>
@@ -23811,7 +23812,7 @@
         <v>20</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>180</v>
@@ -23909,7 +23910,7 @@
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>90</v>
@@ -24287,7 +24288,7 @@
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>185</v>
@@ -24337,7 +24338,7 @@
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>90</v>
@@ -24531,7 +24532,7 @@
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>186</v>
@@ -24731,7 +24732,7 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>190</v>
@@ -25154,7 +25155,7 @@
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>234</v>
@@ -25293,7 +25294,7 @@
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>193</v>
@@ -25856,7 +25857,7 @@
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>237</v>
@@ -25997,7 +25998,7 @@
         <v>7</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>196</v>
@@ -28045,7 +28046,7 @@
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>206</v>
@@ -29165,7 +29166,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="111">
+  <mergeCells count="112">
     <mergeCell ref="A2:A298"/>
     <mergeCell ref="B2:B152"/>
     <mergeCell ref="B203:B298"/>
@@ -29193,11 +29194,11 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D141:D143"/>
-    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="D14:D18"/>
     <mergeCell ref="D144:D152"/>
     <mergeCell ref="D175:D177"/>
-    <mergeCell ref="D275:D298"/>
-    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="D24:D27"/>
     <mergeCell ref="D153:D158"/>
     <mergeCell ref="D28:D32"/>
     <mergeCell ref="D159:D167"/>
@@ -29226,12 +29227,13 @@
     <mergeCell ref="D187:D194"/>
     <mergeCell ref="D99:D105"/>
     <mergeCell ref="D231:D274"/>
+    <mergeCell ref="D275:D298"/>
     <mergeCell ref="D106:D122"/>
     <mergeCell ref="D123:D126"/>
     <mergeCell ref="D127:D128"/>
     <mergeCell ref="D129:D134"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E25:E27"/>
     <mergeCell ref="E63:E67"/>
     <mergeCell ref="E69:E73"/>
     <mergeCell ref="E75:E79"/>

--- a/NRHM/Maharashtra/Nagpur/2015-16/Scripts/Preprocessing/Output/Cleaned/SAONER/Patansaongi SC.xlsx
+++ b/NRHM/Maharashtra/Nagpur/2015-16/Scripts/Preprocessing/Output/Cleaned/SAONER/Patansaongi SC.xlsx
@@ -134,7 +134,7 @@
     <t>Operation Theatre</t>
   </si>
   <si>
-    <t>Treatement</t>
+    <t>Treatment</t>
   </si>
   <si>
     <t>Outpatient</t>
